--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -494,6 +491,9 @@
     <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
+    <t>completed</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -570,13 +570,335 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.id</t>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Who was immunized</t>
+  </si>
+  <si>
+    <t>The patient who either received or did not receive the immunization.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter immunization was part of</t>
+  </si>
+  <si>
+    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t>When the immunization was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>Indicates the source of a secondarily reported record</t>
+  </si>
+  <si>
+    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-source-of-info</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where immunization occurred</t>
+  </si>
+  <si>
+    <t>The service delivery location where the vaccine administration occurred.</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Vaccine manufacturer</t>
+  </si>
+  <si>
+    <t>Name of vaccine manufacturer.</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>Vaccine lot number</t>
+  </si>
+  <si>
+    <t>Lot number of the  vaccine product.</t>
+  </si>
+  <si>
+    <t>RXA-15</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
+  </si>
+  <si>
+    <t>Immunization.expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Vaccine expiration date</t>
+  </si>
+  <si>
+    <t>Date vaccine batch expires.</t>
+  </si>
+  <si>
+    <t>RXA-16</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
+  </si>
+  <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
+    <t>Body site vaccine  was administered</t>
+  </si>
+  <si>
+    <t>Body site where vaccine was administered.</t>
+  </si>
+  <si>
+    <t>The site at which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
+    <t>How vaccine entered body</t>
+  </si>
+  <si>
+    <t>The path by which the vaccine product is taken into the body.</t>
+  </si>
+  <si>
+    <t>The route by which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Amount of vaccine administered</t>
+  </si>
+  <si>
+    <t>The quantity of vaccine product that was administered.</t>
+  </si>
+  <si>
+    <t>RXA-6 / RXA-7</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed event</t>
+  </si>
+  <si>
+    <t>Indicates who performed the immunization event.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>ORC-12 / RXA-10</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>Immunization.performer.id</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -589,10 +911,107 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.extension</t>
+    <t>Immunization.performer.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.function</t>
+  </si>
+  <si>
+    <t>What type of performance was done</t>
+  </si>
+  <si>
+    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The role a practitioner or organization plays in the immunization event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional immunization notes</t>
+  </si>
+  <si>
+    <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 48767-8</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Immunization.note.id</t>
+  </si>
+  <si>
+    <t>Immunization.note.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -605,488 +1024,63 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>Immunization.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>authorReference</t>
+  </si>
+  <si>
+    <t>Immunization.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Immunization.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Who was immunized</t>
-  </si>
-  <si>
-    <t>The patient who either received or did not receive the immunization.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter immunization was part of</t>
-  </si>
-  <si>
-    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t>When the immunization was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>Indicates the source of a secondarily reported record</t>
-  </si>
-  <si>
-    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-source-of-info</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.id</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.text</t>
-  </si>
-  <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where immunization occurred</t>
-  </si>
-  <si>
-    <t>The service delivery location where the vaccine administration occurred.</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Vaccine manufacturer</t>
-  </si>
-  <si>
-    <t>Name of vaccine manufacturer.</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
-    <t>Vaccine lot number</t>
-  </si>
-  <si>
-    <t>Lot number of the  vaccine product.</t>
-  </si>
-  <si>
-    <t>RXA-15</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
-  </si>
-  <si>
-    <t>Immunization.expirationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Vaccine expiration date</t>
-  </si>
-  <si>
-    <t>Date vaccine batch expires.</t>
-  </si>
-  <si>
-    <t>RXA-16</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
-  </si>
-  <si>
-    <t>Immunization.site</t>
-  </si>
-  <si>
-    <t>Body site vaccine  was administered</t>
-  </si>
-  <si>
-    <t>Body site where vaccine was administered.</t>
-  </si>
-  <si>
-    <t>The site at which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>observation.targetSiteCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.route</t>
-  </si>
-  <si>
-    <t>How vaccine entered body</t>
-  </si>
-  <si>
-    <t>The path by which the vaccine product is taken into the body.</t>
-  </si>
-  <si>
-    <t>The route by which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Amount of vaccine administered</t>
-  </si>
-  <si>
-    <t>The quantity of vaccine product that was administered.</t>
-  </si>
-  <si>
-    <t>RXA-6 / RXA-7</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>Immunization.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed event</t>
-  </si>
-  <si>
-    <t>Indicates who performed the immunization event.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>ORC-12 / RXA-10</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Immunization.performer.id</t>
-  </si>
-  <si>
-    <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.function</t>
-  </si>
-  <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.participation.functionCode</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Immunization.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Additional immunization notes</t>
-  </si>
-  <si>
-    <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 48767-8</t>
-  </si>
-  <si>
-    <t>note</t>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
   </si>
   <si>
     <t>Immunization.reasonCode</t>
@@ -1383,27 +1377,27 @@
     <t>Immunization.protocolApplied.doseNumber[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Dose number within series</t>
+  </si>
+  <si>
+    <t>Nominal position in a series.</t>
+  </si>
+  <si>
+    <t>The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
+  </si>
+  <si>
+    <t>doseNumberPositiveInt</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.seriesDoses[x]</t>
+  </si>
+  <si>
     <t>positiveInt
 string</t>
-  </si>
-  <si>
-    <t>Dose number within series</t>
-  </si>
-  <si>
-    <t>Nominal position in a series.</t>
-  </si>
-  <si>
-    <t>The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
-  </si>
-  <si>
-    <t>doseNumberPositiveInt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.seriesDoses[x]</t>
   </si>
   <si>
     <t>Recommended number of doses for immunity</t>
@@ -1538,21 +1532,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1729,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1902,7 +1881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2014,7 +1993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>84</v>
       </c>
@@ -2128,7 +2107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>92</v>
       </c>
@@ -2240,7 +2219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>98</v>
       </c>
@@ -2354,7 +2333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>104</v>
       </c>
@@ -2468,7 +2447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>113</v>
       </c>
@@ -2582,7 +2561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>121</v>
       </c>
@@ -2696,7 +2675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>129</v>
       </c>
@@ -2810,7 +2789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>137</v>
       </c>
@@ -2926,7 +2905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3038,7 +3017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>150</v>
       </c>
@@ -3083,7 +3062,7 @@
         <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>76</v>
@@ -3098,13 +3077,13 @@
         <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>76</v>
@@ -3137,24 +3116,24 @@
         <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3177,16 +3156,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3212,13 +3191,13 @@
         <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>76</v>
@@ -3236,7 +3215,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3251,13 +3230,13 @@
         <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3268,7 +3247,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3282,7 +3261,7 @@
         <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -3291,13 +3270,13 @@
         <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3324,11 +3303,11 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -3346,7 +3325,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>85</v>
@@ -3361,24 +3340,24 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3386,7 +3365,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>85</v>
@@ -3398,16 +3377,16 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3458,10 +3437,10 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>85</v>
@@ -3470,38 +3449,38 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3513,17 +3492,15 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3560,51 +3537,51 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3612,10 +3589,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -3627,20 +3604,18 @@
         <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3676,25 +3651,23 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -3703,38 +3676,40 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3743,20 +3718,18 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3804,10 +3777,10 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
@@ -3819,24 +3792,24 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3844,22 +3817,22 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>210</v>
@@ -3916,10 +3889,10 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>85</v>
@@ -3931,16 +3904,16 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3948,7 +3921,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3962,24 +3935,26 @@
         <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -4028,7 +4003,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4043,24 +4018,24 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4068,7 +4043,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>85</v>
@@ -4080,19 +4055,19 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4118,32 +4093,32 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>85</v>
@@ -4155,28 +4130,26 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4188,26 +4161,24 @@
         <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4256,10 +4227,10 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
@@ -4271,24 +4242,24 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4311,7 +4282,7 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>238</v>
@@ -4368,7 +4339,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4386,21 +4357,21 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4408,7 +4379,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>85</v>
@@ -4420,20 +4391,18 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M24" t="s" s="2">
         <v>246</v>
       </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4482,7 +4451,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4506,10 +4475,10 @@
         <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -4522,13 +4491,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4537,17 +4506,15 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M25" t="s" s="2">
         <v>253</v>
       </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4572,11 +4539,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4612,19 +4581,19 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>256</v>
       </c>
@@ -4649,13 +4618,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4682,13 +4651,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4706,7 +4675,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4718,38 +4687,38 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4761,17 +4730,15 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4796,63 +4763,63 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4863,7 +4830,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4872,23 +4839,19 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4936,13 +4899,13 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -4954,10 +4917,10 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4968,7 +4931,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4979,10 +4942,10 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4991,20 +4954,16 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5052,13 +5011,13 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5067,13 +5026,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5082,9 +5041,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5107,13 +5066,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5164,7 +5123,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5176,38 +5135,38 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -5219,15 +5178,17 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5276,71 +5237,75 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5388,39 +5353,39 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5440,16 +5405,16 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5476,13 +5441,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5500,7 +5465,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5515,13 +5480,13 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5530,9 +5495,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5540,7 +5505,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
@@ -5552,18 +5517,20 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5588,13 +5555,13 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5612,10 +5579,10 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>85</v>
@@ -5627,24 +5594,24 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5664,16 +5631,16 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5700,13 +5667,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5724,13 +5691,13 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5739,24 +5706,24 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5779,13 +5746,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5836,7 +5803,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5848,16 +5815,16 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5866,13 +5833,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5888,18 +5855,20 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5936,19 +5905,19 @@
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5960,16 +5929,16 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5978,9 +5947,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6000,18 +5969,20 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6048,19 +6019,17 @@
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>183</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6072,16 +6041,16 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6090,20 +6059,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="C39" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -6112,19 +6083,19 @@
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6174,28 +6145,28 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>190</v>
+        <v>331</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6204,45 +6175,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6290,28 +6257,28 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>128</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6320,9 +6287,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6330,7 +6297,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>85</v>
@@ -6345,13 +6312,13 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6378,13 +6345,13 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
@@ -6402,10 +6369,10 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>85</v>
@@ -6417,13 +6384,13 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6432,9 +6399,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6442,10 +6409,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6454,20 +6421,18 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6492,13 +6457,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6516,13 +6481,13 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6531,24 +6496,24 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6568,16 +6533,16 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6628,7 +6593,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6643,13 +6608,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6658,9 +6623,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6671,32 +6636,36 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6716,13 +6685,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6740,13 +6709,13 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -6755,13 +6724,13 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6770,9 +6739,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6795,13 +6764,13 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6828,13 +6797,13 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>76</v>
@@ -6852,7 +6821,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6867,7 +6836,7 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6882,9 +6851,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6895,36 +6864,32 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P46" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6968,25 +6933,25 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>128</v>
@@ -6998,9 +6963,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7011,7 +6976,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>76</v>
@@ -7023,13 +6988,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7056,13 +7021,13 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7080,19 +7045,19 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
@@ -7101,7 +7066,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7110,13 +7075,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7135,15 +7100,17 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7192,7 +7159,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7204,7 +7171,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -7213,7 +7180,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7222,41 +7189,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7304,19 +7275,19 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -7325,7 +7296,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7334,20 +7305,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7359,17 +7330,15 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7418,28 +7387,28 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>190</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7448,45 +7417,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7534,19 +7499,19 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -7564,9 +7529,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7589,13 +7554,13 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7646,7 +7611,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7664,7 +7629,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>128</v>
@@ -7676,9 +7641,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7701,13 +7666,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7758,7 +7723,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7776,7 +7741,7 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>128</v>
@@ -7788,9 +7753,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7801,7 +7766,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7813,13 +7778,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7846,13 +7811,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7870,13 +7835,13 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -7888,7 +7853,7 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>128</v>
@@ -7900,9 +7865,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7925,13 +7890,13 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7958,13 +7923,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -7982,7 +7947,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8000,7 +7965,7 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>128</v>
@@ -8012,9 +7977,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8037,15 +8002,17 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8070,13 +8037,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8094,7 +8061,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8112,10 +8079,10 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8124,9 +8091,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8149,13 +8116,13 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>397</v>
+        <v>286</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>398</v>
+        <v>287</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8182,13 +8149,13 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
@@ -8206,7 +8173,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8218,7 +8185,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -8227,7 +8194,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8236,13 +8203,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8261,16 +8228,16 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>402</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>403</v>
+        <v>291</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>404</v>
+        <v>134</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8320,7 +8287,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>401</v>
+        <v>292</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8332,16 +8299,16 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>406</v>
+        <v>289</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8350,41 +8317,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8432,19 +8403,19 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -8453,7 +8424,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8462,20 +8433,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -8487,17 +8458,15 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8546,28 +8515,28 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8576,45 +8545,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>414</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8662,28 +8627,28 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>322</v>
+        <v>413</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>128</v>
+        <v>418</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8692,9 +8657,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8717,13 +8682,13 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8774,7 +8739,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8792,10 +8757,10 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>232</v>
+        <v>423</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8804,9 +8769,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8814,7 +8779,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>85</v>
@@ -8829,13 +8794,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>415</v>
+        <v>279</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8886,13 +8851,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8904,10 +8869,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>419</v>
+        <v>128</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8916,9 +8881,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8941,13 +8906,13 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>287</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8998,7 +8963,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>420</v>
+        <v>288</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9010,16 +8975,16 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>424</v>
+        <v>289</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9028,13 +8993,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9053,15 +9018,17 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>426</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -9110,7 +9077,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9122,7 +9089,7 @@
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -9131,7 +9098,7 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9140,41 +9107,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9222,19 +9193,19 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
@@ -9243,7 +9214,7 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9252,20 +9223,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>76</v>
@@ -9277,17 +9248,15 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>431</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9336,19 +9305,19 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
@@ -9357,7 +9326,7 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9366,45 +9335,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>320</v>
+        <v>434</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9452,19 +9417,19 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>322</v>
+        <v>433</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -9484,7 +9449,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9492,13 +9457,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9507,13 +9472,13 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9540,13 +9505,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9564,13 +9529,13 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9594,9 +9559,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9604,7 +9569,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>85</v>
@@ -9619,15 +9584,17 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>269</v>
+        <v>442</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9664,22 +9631,20 @@
         <v>76</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>85</v>
@@ -9706,20 +9671,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -9731,15 +9698,17 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>161</v>
+        <v>442</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -9764,37 +9733,37 @@
         <v>76</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9818,9 +9787,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9828,7 +9797,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>85</v>
@@ -9843,16 +9812,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9890,20 +9859,22 @@
         <v>76</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AB72" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>85</v>
@@ -9930,255 +9901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="512">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -713,10 +713,226 @@
     <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
   </si>
   <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.id</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-source-of-info</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-source-of-info</t>
   </si>
   <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Immunization.location</t>
@@ -769,10 +985,6 @@
     <t>Immunization.lotNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Vaccine lot number</t>
   </si>
   <si>
@@ -899,25 +1111,7 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1012,16 +1206,6 @@
   </si>
   <si>
     <t>Immunization.note.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Immunization.note.author[x]</t>
@@ -1708,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4043,7 +4227,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>85</v>
@@ -4093,11 +4277,13 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -4136,7 +4322,7 @@
         <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>221</v>
@@ -4147,7 +4333,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4170,13 +4356,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4227,7 +4413,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4239,19 +4425,19 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -4259,18 +4445,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4282,15 +4468,17 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4327,51 +4515,51 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4379,10 +4567,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4391,19 +4579,23 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4451,13 +4643,13 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4469,16 +4661,16 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -4506,13 +4698,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4563,7 +4755,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4575,16 +4767,16 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4595,18 +4787,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4618,15 +4810,17 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4651,63 +4845,63 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4727,19 +4921,23 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4748,7 +4946,7 @@
         <v>76</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>76</v>
@@ -4763,13 +4961,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4787,7 +4985,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4805,21 +5003,21 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4839,18 +5037,20 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4899,7 +5099,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4917,10 +5117,10 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4931,7 +5131,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4942,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -4954,16 +5154,18 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4987,13 +5189,11 @@
         <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>76</v>
@@ -5011,13 +5211,13 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5026,13 +5226,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5043,7 +5243,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5063,19 +5263,21 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5123,7 +5325,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5135,16 +5337,16 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5155,18 +5357,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -5175,21 +5377,23 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5237,28 +5441,28 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5269,42 +5473,42 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5353,28 +5557,28 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5385,7 +5589,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5405,16 +5609,16 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5441,13 +5645,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5465,7 +5669,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5480,16 +5684,16 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5497,7 +5701,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5505,7 +5709,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
@@ -5517,20 +5721,18 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M34" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5579,10 +5781,10 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>85</v>
@@ -5594,19 +5796,19 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -5619,7 +5821,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>85</v>
@@ -5631,16 +5833,16 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5697,7 +5899,7 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5706,24 +5908,24 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5746,13 +5948,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5803,7 +6005,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5815,16 +6017,16 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5835,18 +6037,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5858,17 +6060,15 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5893,63 +6093,63 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5969,20 +6169,18 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6007,29 +6205,31 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6047,25 +6247,23 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>128</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6083,20 +6281,18 @@
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6145,7 +6341,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6163,10 +6359,10 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6177,7 +6373,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6188,7 +6384,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6200,13 +6396,13 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6257,13 +6453,13 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6272,13 +6468,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>128</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6289,7 +6485,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6297,7 +6493,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>85</v>
@@ -6309,16 +6505,16 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6369,10 +6565,10 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>85</v>
@@ -6381,16 +6577,16 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6401,11 +6597,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6424,15 +6620,17 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6457,13 +6655,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6481,7 +6679,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>345</v>
+        <v>240</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6493,16 +6691,16 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6513,11 +6711,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6530,22 +6728,26 @@
         <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>353</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6593,7 +6795,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6605,10 +6807,10 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6625,7 +6827,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6642,30 +6844,26 @@
         <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6685,13 +6883,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6709,7 +6907,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6724,13 +6922,13 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>128</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6741,7 +6939,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6749,10 +6947,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -6761,18 +6959,20 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>162</v>
+        <v>371</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6797,13 +6997,13 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>76</v>
@@ -6821,13 +7021,13 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -6836,16 +7036,16 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -6853,7 +7053,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6864,7 +7064,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -6873,16 +7073,16 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>279</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6933,7 +7133,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6945,16 +7145,16 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>128</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6965,7 +7165,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6988,13 +7188,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7045,7 +7245,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7066,7 +7266,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7077,7 +7277,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7106,7 +7306,7 @@
         <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>134</v>
@@ -7147,19 +7347,19 @@
         <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7180,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7191,43 +7391,41 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>131</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7263,40 +7461,38 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>128</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7307,9 +7503,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7327,18 +7525,20 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7387,7 +7587,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7405,10 +7605,10 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>128</v>
+        <v>393</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7419,7 +7619,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7439,16 +7639,16 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7499,7 +7699,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7517,10 +7717,10 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>128</v>
+        <v>399</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7531,7 +7731,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7539,7 +7739,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
@@ -7551,16 +7751,16 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7611,10 +7811,10 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>85</v>
@@ -7629,10 +7829,10 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7643,7 +7843,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7654,7 +7854,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7666,13 +7866,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7699,13 +7899,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7723,13 +7923,13 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7738,13 +7938,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>128</v>
+        <v>412</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7755,7 +7955,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7778,13 +7978,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7811,13 +8011,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7835,7 +8035,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7850,10 +8050,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>128</v>
@@ -7867,7 +8067,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7884,26 +8084,30 @@
         <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7923,13 +8127,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -7947,7 +8151,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7965,7 +8169,7 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>422</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>128</v>
@@ -7979,7 +8183,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8002,17 +8206,15 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8037,13 +8239,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8061,7 +8263,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8079,10 +8281,10 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>405</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8093,7 +8295,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8104,7 +8306,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8116,13 +8318,13 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>286</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>287</v>
+        <v>430</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8173,19 +8375,19 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>288</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -8194,7 +8396,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>289</v>
+        <v>128</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8205,18 +8407,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -8228,17 +8430,15 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8287,19 +8487,19 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
@@ -8308,7 +8508,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8319,11 +8519,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8336,26 +8536,24 @@
         <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8403,7 +8601,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8424,7 +8622,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8435,39 +8633,43 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8515,28 +8717,28 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8547,7 +8749,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8570,13 +8772,13 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>414</v>
+        <v>230</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8627,7 +8829,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8645,10 +8847,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>418</v>
+        <v>128</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8659,7 +8861,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8682,13 +8884,13 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8739,7 +8941,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8757,10 +8959,10 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>423</v>
+        <v>128</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8771,7 +8973,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8779,7 +8981,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>85</v>
@@ -8794,13 +8996,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8851,13 +9053,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8869,7 +9071,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>128</v>
@@ -8883,7 +9085,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8906,13 +9108,13 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>286</v>
+        <v>447</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>287</v>
+        <v>448</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8963,7 +9165,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>288</v>
+        <v>446</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8975,16 +9177,16 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>289</v>
+        <v>128</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8995,11 +9197,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9018,17 +9220,15 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>451</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -9053,13 +9253,13 @@
         <v>76</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -9077,7 +9277,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>292</v>
+        <v>450</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9089,16 +9289,16 @@
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>289</v>
+        <v>128</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9109,43 +9309,39 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>295</v>
+        <v>457</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9169,13 +9365,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9193,19 +9389,19 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
@@ -9225,7 +9421,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9233,10 +9429,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>76</v>
@@ -9248,15 +9444,17 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9305,13 +9503,13 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9323,10 +9521,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>128</v>
+        <v>466</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9337,7 +9535,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9360,13 +9558,13 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>434</v>
+        <v>231</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>435</v>
+        <v>232</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9417,7 +9615,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>433</v>
+        <v>233</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9429,7 +9627,7 @@
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -9438,7 +9636,7 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9449,11 +9647,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9472,15 +9670,17 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>437</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9505,13 +9705,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9529,7 +9729,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>436</v>
+        <v>240</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9541,7 +9741,7 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -9550,7 +9750,7 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9561,41 +9761,43 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>442</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>443</v>
+        <v>359</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9631,29 +9833,31 @@
         <v>76</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
@@ -9673,17 +9877,15 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>85</v>
@@ -9698,17 +9900,15 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>442</v>
+        <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -9757,10 +9957,10 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>85</v>
@@ -9775,10 +9975,10 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9789,7 +9989,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9812,17 +10012,15 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9871,7 +10069,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9889,15 +10087,1259 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>76</v>
+        <v>478</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AB81" s="2"/>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -807,9 +807,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-source-of-info</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -4227,7 +4224,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>85</v>
@@ -4946,46 +4943,46 @@
         <v>76</v>
       </c>
       <c r="R27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5003,10 +5000,10 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -5017,7 +5014,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5043,13 +5040,13 @@
         <v>230</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5099,7 +5096,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5117,10 +5114,10 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5131,7 +5128,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5157,14 +5154,14 @@
         <v>105</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5193,25 +5190,25 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5229,10 +5226,10 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5243,7 +5240,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5269,14 +5266,14 @@
         <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5325,7 +5322,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5343,10 +5340,10 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5357,7 +5354,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5383,16 +5380,16 @@
         <v>215</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5441,7 +5438,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5459,10 +5456,10 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5473,7 +5470,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5499,16 +5496,16 @@
         <v>230</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5557,7 +5554,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5575,10 +5572,10 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5589,7 +5586,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5612,13 +5609,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5669,7 +5666,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5684,16 +5681,16 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5701,7 +5698,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5724,13 +5721,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5781,7 +5778,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5799,21 +5796,21 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5839,10 +5836,10 @@
         <v>230</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5893,7 +5890,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5911,21 +5908,21 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5948,13 +5945,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6005,7 +6002,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6023,10 +6020,10 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6037,7 +6034,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6063,10 +6060,10 @@
         <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6096,11 +6093,11 @@
         <v>166</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6135,21 +6132,21 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6175,10 +6172,10 @@
         <v>162</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6208,11 +6205,11 @@
         <v>166</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6247,21 +6244,21 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6284,13 +6281,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6341,7 +6338,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6359,10 +6356,10 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6373,7 +6370,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6396,13 +6393,13 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6453,7 +6450,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6468,13 +6465,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6485,7 +6482,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6597,7 +6594,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6711,11 +6708,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6737,10 +6734,10 @@
         <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>134</v>
@@ -6795,7 +6792,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6853,10 +6850,10 @@
         <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6883,14 +6880,14 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="X44" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="X44" t="s" s="2">
+      <c r="Y44" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6907,7 +6904,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6922,13 +6919,13 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6939,7 +6936,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6962,16 +6959,16 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7021,7 +7018,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>85</v>
@@ -7036,16 +7033,16 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -7053,7 +7050,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7076,13 +7073,13 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7133,7 +7130,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7148,13 +7145,13 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7165,7 +7162,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7277,7 +7274,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7391,7 +7388,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7414,16 +7411,16 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7471,7 +7468,7 @@
         <v>239</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7492,7 +7489,7 @@
         <v>128</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7503,10 +7500,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>76</v>
@@ -7528,16 +7525,16 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7587,7 +7584,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7608,7 +7605,7 @@
         <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7619,7 +7616,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7645,10 +7642,10 @@
         <v>197</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7699,7 +7696,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7720,7 +7717,7 @@
         <v>128</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7731,7 +7728,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7754,13 +7751,13 @@
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7811,7 +7808,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>85</v>
@@ -7832,7 +7829,7 @@
         <v>128</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7843,7 +7840,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7869,10 +7866,10 @@
         <v>162</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7902,11 +7899,11 @@
         <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7923,7 +7920,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7938,13 +7935,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7955,7 +7952,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7978,13 +7975,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8035,7 +8032,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8050,7 +8047,7 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -8067,7 +8064,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8093,20 +8090,20 @@
         <v>215</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>76</v>
@@ -8151,7 +8148,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8169,7 +8166,7 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>128</v>
@@ -8183,7 +8180,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8209,10 +8206,10 @@
         <v>162</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8242,11 +8239,11 @@
         <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8263,7 +8260,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8295,7 +8292,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8318,13 +8315,13 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8375,7 +8372,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8387,7 +8384,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -8407,7 +8404,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8519,7 +8516,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8633,11 +8630,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8659,10 +8656,10 @@
         <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>134</v>
@@ -8717,7 +8714,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8749,7 +8746,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8775,10 +8772,10 @@
         <v>230</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8829,7 +8826,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8847,7 +8844,7 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>128</v>
@@ -8861,7 +8858,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8887,10 +8884,10 @@
         <v>99</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8941,7 +8938,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8973,7 +8970,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8999,10 +8996,10 @@
         <v>197</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9053,7 +9050,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9071,7 +9068,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>128</v>
@@ -9085,7 +9082,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9111,10 +9108,10 @@
         <v>197</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9165,7 +9162,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9183,7 +9180,7 @@
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>128</v>
@@ -9197,7 +9194,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9223,10 +9220,10 @@
         <v>162</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9256,11 +9253,11 @@
         <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9277,7 +9274,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9295,7 +9292,7 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>128</v>
@@ -9309,7 +9306,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9335,10 +9332,10 @@
         <v>162</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9368,11 +9365,11 @@
         <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9389,7 +9386,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9421,7 +9418,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9444,16 +9441,16 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9503,7 +9500,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9521,10 +9518,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9535,7 +9532,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9647,7 +9644,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9761,11 +9758,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9787,10 +9784,10 @@
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>134</v>
@@ -9845,7 +9842,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9877,7 +9874,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9903,10 +9900,10 @@
         <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9957,7 +9954,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9975,7 +9972,7 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>205</v>
@@ -9989,7 +9986,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10012,13 +10009,13 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10069,7 +10066,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10087,10 +10084,10 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10101,7 +10098,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10127,10 +10124,10 @@
         <v>215</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10181,7 +10178,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10199,10 +10196,10 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10213,7 +10210,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10236,13 +10233,13 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10293,7 +10290,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10325,7 +10322,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10437,7 +10434,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10551,11 +10548,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10577,10 +10574,10 @@
         <v>131</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>134</v>
@@ -10635,7 +10632,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10667,7 +10664,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10693,10 +10690,10 @@
         <v>230</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10747,7 +10744,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10779,7 +10776,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10802,13 +10799,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10859,7 +10856,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10891,7 +10888,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10917,10 +10914,10 @@
         <v>162</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10950,11 +10947,11 @@
         <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10971,7 +10968,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11003,7 +11000,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11026,16 +11023,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11083,7 +11080,7 @@
         <v>202</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>85</v>
@@ -11115,10 +11112,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>76</v>
@@ -11140,16 +11137,16 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11199,7 +11196,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>85</v>
@@ -11231,7 +11228,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11254,16 +11251,16 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>511</v>
-      </c>
       <c r="M83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11313,7 +11310,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -552,22 +552,239 @@
     <t>Vaccine that was administered or was to be administered.</t>
   </si>
   <si>
+    <t>The code for vaccine product administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.id</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.extension</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-vaccine-types</t>
   </si>
   <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Immunization.patient</t>
@@ -679,10 +896,6 @@
     <t>Immunization.primarySource</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>Indicates context the data was recorded in</t>
   </si>
   <si>
@@ -725,69 +938,12 @@
     <t>Immunization.reportOrigin.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Immunization.reportOrigin.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Immunization.reportOrigin.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
     <t>Immunization.reportOrigin.coding.id</t>
   </si>
   <si>
@@ -797,139 +953,22 @@
     <t>Immunization.reportOrigin.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
     <t>Immunization.reportOrigin.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
     <t>Immunization.reportOrigin.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-source-of-info</t>
   </si>
   <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
     <t>Immunization.reportOrigin.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
     <t>Immunization.reportOrigin.coding.userSelected</t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
     <t>Immunization.reportOrigin.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Immunization.location</t>
@@ -1889,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3484,11 +3523,13 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -3521,24 +3562,24 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3546,7 +3587,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>85</v>
@@ -3558,16 +3599,16 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3618,10 +3659,10 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>85</v>
@@ -3630,19 +3671,19 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>76</v>
@@ -3650,18 +3691,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3673,15 +3714,17 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3718,43 +3761,43 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>76</v>
@@ -3762,7 +3805,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3770,10 +3813,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -3785,18 +3828,20 @@
         <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3832,23 +3877,25 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -3857,34 +3904,32 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
@@ -3896,20 +3941,18 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3958,10 +4001,10 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
@@ -3970,38 +4013,38 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -4013,15 +4056,17 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -4058,31 +4103,31 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -4091,10 +4136,10 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -4102,7 +4147,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4125,18 +4170,20 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4184,7 +4231,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4202,13 +4249,13 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -4216,7 +4263,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4236,19 +4283,19 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4274,13 +4321,13 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -4298,7 +4345,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4316,13 +4363,13 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4330,7 +4377,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4350,19 +4397,21 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4386,13 +4435,11 @@
         <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>76</v>
@@ -4410,7 +4457,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4422,16 +4469,16 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4442,18 +4489,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4462,21 +4509,21 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4512,40 +4559,40 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4556,7 +4603,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4567,7 +4614,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4579,19 +4626,19 @@
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4640,13 +4687,13 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4658,10 +4705,10 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4672,7 +4719,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4692,19 +4739,23 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4752,7 +4803,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4764,16 +4815,16 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4788,14 +4839,14 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4804,20 +4855,18 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4854,43 +4903,43 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4898,7 +4947,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4906,7 +4955,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
@@ -4918,23 +4967,19 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4982,7 +5027,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4997,16 +5042,16 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -5014,7 +5059,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5022,7 +5067,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -5037,16 +5082,16 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5084,22 +5129,20 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -5111,32 +5154,34 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
@@ -5151,18 +5196,18 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
         <v>270</v>
       </c>
+      <c r="M29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5186,11 +5231,13 @@
         <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>76</v>
@@ -5208,10 +5255,10 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -5223,24 +5270,24 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5260,21 +5307,19 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5322,7 +5367,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5340,13 +5385,13 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5354,7 +5399,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5377,20 +5422,18 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5438,7 +5481,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5456,13 +5499,13 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5470,7 +5513,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5490,23 +5533,21 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5530,13 +5571,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -5554,7 +5595,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5572,13 +5613,13 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5586,7 +5627,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5609,13 +5650,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5666,7 +5707,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5678,19 +5719,19 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5698,18 +5739,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -5721,15 +5762,17 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5766,51 +5809,51 @@
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5818,10 +5861,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5830,19 +5873,23 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5890,13 +5937,13 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5908,21 +5955,21 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>201</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5945,13 +5992,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>184</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6002,7 +6049,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6014,16 +6061,16 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6034,18 +6081,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -6057,15 +6104,17 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6090,63 +6139,63 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>192</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6166,19 +6215,23 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6202,13 +6255,13 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
@@ -6226,7 +6279,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6244,21 +6297,21 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>339</v>
+        <v>211</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6278,18 +6331,20 @@
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6338,7 +6393,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>216</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6356,10 +6411,10 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6370,7 +6425,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6381,7 +6436,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6393,16 +6448,18 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>348</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6426,13 +6483,11 @@
         <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -6450,13 +6505,13 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6465,13 +6520,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>352</v>
+        <v>225</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>353</v>
+        <v>226</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6482,7 +6537,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6502,19 +6557,21 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6562,28 +6619,28 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6594,18 +6651,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6614,21 +6671,23 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6682,22 +6741,22 @@
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6708,42 +6767,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6792,28 +6851,28 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6824,7 +6883,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6844,16 +6903,16 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>162</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6880,13 +6939,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6904,7 +6963,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6919,16 +6978,16 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6936,7 +6995,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6944,7 +7003,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>85</v>
@@ -6956,20 +7015,18 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7018,10 +7075,10 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>85</v>
@@ -7033,24 +7090,24 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7058,7 +7115,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>85</v>
@@ -7070,16 +7127,16 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>378</v>
+        <v>182</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7130,13 +7187,13 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7145,24 +7202,24 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7185,13 +7242,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7242,7 +7299,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7254,16 +7311,16 @@
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7274,18 +7331,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>76</v>
@@ -7297,17 +7354,15 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7332,63 +7387,63 @@
         <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7408,20 +7463,18 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>387</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7446,29 +7499,31 @@
         <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB49" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7486,25 +7541,23 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>128</v>
+        <v>351</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7522,20 +7575,18 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7584,7 +7635,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7602,10 +7653,10 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>128</v>
+        <v>358</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7616,7 +7667,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7627,7 +7678,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7639,13 +7690,13 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>197</v>
+        <v>361</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7696,13 +7747,13 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7711,13 +7762,13 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7728,7 +7779,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7736,7 +7787,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
@@ -7748,16 +7799,16 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>400</v>
+        <v>182</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>183</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>184</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7808,10 +7859,10 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>85</v>
@@ -7820,16 +7871,16 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7840,11 +7891,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7863,15 +7914,17 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7896,13 +7949,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7920,7 +7973,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>405</v>
+        <v>192</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7932,16 +7985,16 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>411</v>
+        <v>186</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7952,11 +8005,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7969,22 +8022,26 @@
         <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>413</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8032,7 +8089,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8044,10 +8101,10 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -8064,7 +8121,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8081,30 +8138,26 @@
         <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8124,13 +8177,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8148,7 +8201,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8163,13 +8216,13 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>128</v>
+        <v>381</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8180,7 +8233,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8188,10 +8241,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -8200,18 +8253,20 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8236,13 +8291,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8260,13 +8315,13 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8275,16 +8330,16 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>128</v>
+        <v>388</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8292,7 +8347,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8303,7 +8358,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8312,16 +8367,16 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8372,7 +8427,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8384,16 +8439,16 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8404,7 +8459,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8427,13 +8482,13 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8484,7 +8539,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8505,7 +8560,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8516,7 +8571,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8545,7 +8600,7 @@
         <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>134</v>
@@ -8586,19 +8641,19 @@
         <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8619,7 +8674,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8630,43 +8685,41 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>400</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8702,40 +8755,38 @@
         <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8746,9 +8797,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8766,18 +8819,20 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8826,7 +8881,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8844,10 +8899,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>437</v>
+        <v>128</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8858,7 +8913,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8878,16 +8933,16 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8938,7 +8993,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8956,10 +9011,10 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>128</v>
+        <v>411</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8970,7 +9025,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8978,7 +9033,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>85</v>
@@ -8990,16 +9045,16 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>197</v>
+        <v>413</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9050,10 +9105,10 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>85</v>
@@ -9068,10 +9123,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>444</v>
+        <v>128</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>128</v>
+        <v>417</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9082,7 +9137,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9093,7 +9148,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
@@ -9105,13 +9160,13 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9138,13 +9193,13 @@
         <v>76</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>76</v>
+        <v>422</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>76</v>
@@ -9162,13 +9217,13 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9177,13 +9232,13 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>423</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>128</v>
+        <v>424</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9194,7 +9249,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9217,13 +9272,13 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9250,13 +9305,13 @@
         <v>76</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>452</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>453</v>
+        <v>76</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -9274,7 +9329,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9289,10 +9344,10 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>128</v>
@@ -9306,7 +9361,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9323,26 +9378,30 @@
         <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="Q66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9362,13 +9421,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9386,7 +9445,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9404,7 +9463,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>434</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>128</v>
@@ -9418,7 +9477,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9441,17 +9500,15 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9476,13 +9533,13 @@
         <v>76</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>76</v>
@@ -9500,7 +9557,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9518,10 +9575,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>465</v>
+        <v>128</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9532,7 +9589,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9543,7 +9600,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
@@ -9555,13 +9612,13 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>230</v>
+        <v>361</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>231</v>
+        <v>441</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>232</v>
+        <v>442</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9612,19 +9669,19 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>233</v>
+        <v>440</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -9633,7 +9690,7 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9644,18 +9701,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9667,17 +9724,15 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9726,19 +9781,19 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -9747,7 +9802,7 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9758,11 +9813,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9775,26 +9830,24 @@
         <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>358</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9842,7 +9895,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9863,7 +9916,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9874,39 +9927,43 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>371</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9954,28 +10011,28 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>469</v>
+        <v>373</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9986,7 +10043,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10009,13 +10066,13 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>474</v>
+        <v>182</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10066,7 +10123,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10084,10 +10141,10 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>478</v>
+        <v>128</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10098,7 +10155,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10121,13 +10178,13 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10178,7 +10235,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10196,10 +10253,10 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>482</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>483</v>
+        <v>128</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10210,7 +10267,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10218,7 +10275,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>85</v>
@@ -10233,13 +10290,13 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10290,13 +10347,13 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10308,7 +10365,7 @@
         <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>128</v>
@@ -10322,7 +10379,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10345,13 +10402,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>231</v>
+        <v>459</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>232</v>
+        <v>460</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10402,7 +10459,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>233</v>
+        <v>458</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10414,16 +10471,16 @@
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>76</v>
+        <v>461</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10434,11 +10491,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10457,17 +10514,15 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>132</v>
+        <v>463</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10492,13 +10547,13 @@
         <v>76</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>76</v>
+        <v>466</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>76</v>
@@ -10516,7 +10571,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>240</v>
+        <v>462</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10528,16 +10583,16 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10548,43 +10603,39 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>358</v>
+        <v>469</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10608,13 +10659,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>76</v>
+        <v>471</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10632,19 +10683,19 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -10664,7 +10715,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10672,10 +10723,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>76</v>
@@ -10687,15 +10738,17 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>230</v>
+        <v>361</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10744,13 +10797,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10762,10 +10815,10 @@
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>76</v>
+        <v>477</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>128</v>
+        <v>478</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10776,7 +10829,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10799,13 +10852,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>494</v>
+        <v>183</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
+        <v>184</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10856,7 +10909,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>493</v>
+        <v>185</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10868,7 +10921,7 @@
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>76</v>
@@ -10877,7 +10930,7 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -10888,11 +10941,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10911,15 +10964,17 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>497</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
@@ -10944,13 +10999,13 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>499</v>
+        <v>76</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>500</v>
+        <v>76</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10968,7 +11023,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>496</v>
+        <v>192</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10980,7 +11035,7 @@
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>76</v>
@@ -10989,7 +11044,7 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -11000,41 +11055,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>502</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>503</v>
+        <v>371</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>504</v>
+        <v>372</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11070,29 +11127,31 @@
         <v>76</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB81" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>501</v>
+        <v>373</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>76</v>
@@ -11112,17 +11171,15 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>85</v>
@@ -11137,17 +11194,15 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>502</v>
+        <v>268</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11196,10 +11251,10 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>85</v>
@@ -11214,10 +11269,10 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11228,7 +11283,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11251,17 +11306,15 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11310,7 +11363,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11328,15 +11381,1259 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AB92" s="2"/>
+      <c r="AC92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -552,10 +552,7 @@
     <t>Vaccine that was administered or was to be administered.</t>
   </si>
   <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-vaccine-types</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -573,7 +570,159 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.id</t>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Who was immunized</t>
+  </si>
+  <si>
+    <t>The patient who either received or did not receive the immunization.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter immunization was part of</t>
+  </si>
+  <si>
+    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t>When the immunization was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>Indicates the source of a secondarily reported record</t>
+  </si>
+  <si>
+    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -592,7 +741,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.extension</t>
+    <t>Immunization.reportOrigin.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -611,7 +760,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.coding</t>
+    <t>Immunization.reportOrigin.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -639,13 +788,13 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.coding.id</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding.extension</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding.system</t>
+    <t>Immunization.reportOrigin.coding.id</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -669,7 +818,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.coding.version</t>
+    <t>Immunization.reportOrigin.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -690,7 +839,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.coding.code</t>
+    <t>Immunization.reportOrigin.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -702,7 +851,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-vaccine-types</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-source-of-info</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -714,7 +863,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.coding.display</t>
+    <t>Immunization.reportOrigin.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -735,11 +884,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
+    <t>Immunization.reportOrigin.coding.userSelected</t>
   </si>
   <si>
     <t>If this coding was chosen directly by the user</t>
@@ -763,7 +908,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.text</t>
+    <t>Immunization.reportOrigin.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -785,190 +930,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Who was immunized</t>
-  </si>
-  <si>
-    <t>The patient who either received or did not receive the immunization.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter immunization was part of</t>
-  </si>
-  <si>
-    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t>When the immunization was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>Indicates the source of a secondarily reported record</t>
-  </si>
-  <si>
-    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.id</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding.id</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding.system</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding.version</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding.code</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-source-of-info</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding.display</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin.text</t>
   </si>
   <si>
     <t>Immunization.location</t>
@@ -1928,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3523,13 +3484,11 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -3562,24 +3521,24 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3587,7 +3546,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>85</v>
@@ -3599,16 +3558,16 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3659,31 +3618,31 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>76</v>
@@ -3691,18 +3650,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3714,17 +3673,15 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3761,43 +3718,43 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>76</v>
@@ -3805,7 +3762,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3813,10 +3770,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -3828,20 +3785,18 @@
         <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3877,25 +3832,23 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -3904,32 +3857,34 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
@@ -3941,18 +3896,20 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -4001,10 +3958,10 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
@@ -4013,38 +3970,38 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -4056,17 +4013,15 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -4103,31 +4058,31 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -4136,10 +4091,10 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -4147,7 +4102,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4170,20 +4125,18 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4231,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4249,13 +4202,13 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -4263,7 +4216,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4283,19 +4236,19 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4321,13 +4274,13 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -4345,7 +4298,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4363,13 +4316,13 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4377,7 +4330,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4397,21 +4350,19 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4435,11 +4386,13 @@
         <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>76</v>
@@ -4457,7 +4410,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4469,16 +4422,16 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4489,18 +4442,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4509,21 +4462,21 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4559,40 +4512,40 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4603,7 +4556,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4614,7 +4567,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4626,19 +4579,19 @@
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4687,13 +4640,13 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4705,10 +4658,10 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4719,7 +4672,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4739,23 +4692,19 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4803,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4815,16 +4764,16 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4839,14 +4788,14 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4855,18 +4804,20 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4903,43 +4854,43 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4947,7 +4898,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4955,7 +4906,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
@@ -4967,19 +4918,23 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -5027,7 +4982,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5042,16 +4997,16 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -5059,7 +5014,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5067,7 +5022,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -5082,16 +5037,16 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5129,20 +5084,22 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -5154,34 +5111,32 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>279</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
@@ -5196,18 +5151,18 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5231,13 +5186,11 @@
         <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>76</v>
@@ -5255,10 +5208,10 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -5270,24 +5223,24 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5307,19 +5260,21 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5367,7 +5322,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5385,13 +5340,13 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5399,7 +5354,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5422,18 +5377,20 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5481,7 +5438,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5499,13 +5456,13 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5513,7 +5470,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5533,21 +5490,23 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5571,13 +5530,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -5595,7 +5554,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5613,13 +5572,13 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5627,7 +5586,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5650,13 +5609,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5707,7 +5666,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5719,19 +5678,19 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5739,18 +5698,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -5762,17 +5721,15 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5809,51 +5766,51 @@
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5861,10 +5818,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5873,23 +5830,19 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5937,13 +5890,13 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>199</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5955,21 +5908,21 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5992,13 +5945,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6049,7 +6002,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6061,16 +6014,16 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6081,18 +6034,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -6104,17 +6057,15 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6139,63 +6090,63 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6215,23 +6166,19 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6255,13 +6202,13 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
@@ -6279,7 +6226,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6297,21 +6244,21 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6331,20 +6278,18 @@
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6393,7 +6338,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6411,10 +6356,10 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6425,7 +6370,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6436,7 +6381,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6448,18 +6393,16 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6483,11 +6426,13 @@
         <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -6505,13 +6450,13 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6520,13 +6465,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>225</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6537,7 +6482,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6557,21 +6502,19 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6619,7 +6562,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6631,16 +6574,16 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6651,18 +6594,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6671,23 +6614,21 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6741,22 +6682,22 @@
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6767,42 +6708,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>247</v>
+        <v>140</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6851,28 +6792,28 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6883,7 +6824,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6903,16 +6844,16 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6939,13 +6880,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6963,7 +6904,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6978,16 +6919,16 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6995,7 +6936,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7003,7 +6944,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>85</v>
@@ -7015,18 +6956,20 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7075,10 +7018,10 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>85</v>
@@ -7090,24 +7033,24 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7115,7 +7058,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>85</v>
@@ -7127,16 +7070,16 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7187,13 +7130,13 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7202,24 +7145,24 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7242,13 +7185,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7299,7 +7242,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7311,16 +7254,16 @@
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>234</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7331,18 +7274,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>76</v>
@@ -7354,15 +7297,17 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7387,63 +7332,63 @@
         <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7463,18 +7408,20 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>162</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7499,31 +7446,29 @@
         <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7541,23 +7486,25 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>351</v>
+        <v>128</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7575,18 +7522,20 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7635,7 +7584,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7653,10 +7602,10 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>358</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7667,7 +7616,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7678,7 +7627,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7690,13 +7639,13 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>361</v>
+        <v>197</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7747,13 +7696,13 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7762,13 +7711,13 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>365</v>
+        <v>128</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7779,7 +7728,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7787,7 +7736,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
@@ -7799,16 +7748,16 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>184</v>
+        <v>402</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7859,10 +7808,10 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>185</v>
+        <v>403</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>85</v>
@@ -7871,16 +7820,16 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>186</v>
+        <v>404</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7891,11 +7840,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7914,17 +7863,15 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7949,13 +7896,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7973,7 +7920,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>192</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7985,16 +7932,16 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>186</v>
+        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -8005,11 +7952,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8022,26 +7969,22 @@
         <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8089,7 +8032,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8101,10 +8044,10 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -8121,7 +8064,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8138,26 +8081,30 @@
         <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8177,13 +8124,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8201,7 +8148,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8216,13 +8163,13 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8233,7 +8180,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8241,10 +8188,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -8253,20 +8200,18 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>383</v>
+        <v>162</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8291,13 +8236,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8315,13 +8260,13 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8330,16 +8275,16 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>388</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8347,7 +8292,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8358,7 +8303,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8367,16 +8312,16 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8427,7 +8372,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8439,16 +8384,16 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>396</v>
+        <v>128</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8459,7 +8404,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8482,13 +8427,13 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8539,7 +8484,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8560,7 +8505,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8571,7 +8516,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8600,7 +8545,7 @@
         <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>134</v>
@@ -8641,19 +8586,19 @@
         <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8674,7 +8619,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8685,41 +8630,43 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>400</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8755,38 +8702,40 @@
         <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8797,11 +8746,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8819,20 +8766,18 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8881,7 +8826,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8899,10 +8844,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8913,7 +8858,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8933,16 +8878,16 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8993,7 +8938,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9011,10 +8956,10 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9025,7 +8970,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9033,7 +8978,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>85</v>
@@ -9045,16 +8990,16 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>413</v>
+        <v>197</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9105,10 +9050,10 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>85</v>
@@ -9123,10 +9068,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9137,7 +9082,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9148,7 +9093,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
@@ -9160,13 +9105,13 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9193,13 +9138,13 @@
         <v>76</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>76</v>
@@ -9217,13 +9162,13 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9232,13 +9177,13 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>424</v>
+        <v>128</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9249,7 +9194,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9272,13 +9217,13 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9305,13 +9250,13 @@
         <v>76</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>76</v>
+        <v>452</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -9329,7 +9274,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9344,10 +9289,10 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>128</v>
@@ -9361,7 +9306,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9378,30 +9323,26 @@
         <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P66" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9421,13 +9362,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9445,7 +9386,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9463,7 +9404,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>128</v>
@@ -9477,7 +9418,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9500,15 +9441,17 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9533,13 +9476,13 @@
         <v>76</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>76</v>
@@ -9557,7 +9500,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9575,10 +9518,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>128</v>
+        <v>465</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9589,7 +9532,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9600,7 +9543,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
@@ -9612,13 +9555,13 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>441</v>
+        <v>231</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>232</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9669,19 +9612,19 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>440</v>
+        <v>233</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -9690,7 +9633,7 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9701,18 +9644,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9724,15 +9667,17 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9781,19 +9726,19 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -9802,7 +9747,7 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9813,11 +9758,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>130</v>
+        <v>357</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9830,24 +9775,26 @@
         <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>188</v>
+        <v>359</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9895,7 +9842,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>192</v>
+        <v>360</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9916,7 +9863,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9927,43 +9874,39 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>371</v>
+        <v>470</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -10011,28 +9954,28 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10043,7 +9986,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10066,13 +10009,13 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10123,7 +10066,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10141,10 +10084,10 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>128</v>
+        <v>478</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10155,7 +10098,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10178,13 +10121,13 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10235,7 +10178,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10253,10 +10196,10 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>128</v>
+        <v>483</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10267,7 +10210,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10275,7 +10218,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>85</v>
@@ -10290,13 +10233,13 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10347,13 +10290,13 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10365,7 +10308,7 @@
         <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>128</v>
@@ -10379,7 +10322,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10402,13 +10345,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>460</v>
+        <v>232</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10459,7 +10402,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>458</v>
+        <v>233</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10471,16 +10414,16 @@
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10491,11 +10434,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10514,15 +10457,17 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>463</v>
+        <v>132</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10547,13 +10492,13 @@
         <v>76</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>466</v>
+        <v>76</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>76</v>
@@ -10571,7 +10516,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>462</v>
+        <v>240</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10583,16 +10528,16 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10603,39 +10548,43 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>469</v>
+        <v>358</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10659,13 +10608,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10683,19 +10632,19 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>468</v>
+        <v>360</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -10715,7 +10664,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10723,10 +10672,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>76</v>
@@ -10738,17 +10687,15 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10797,13 +10744,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10815,10 +10762,10 @@
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>478</v>
+        <v>128</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10829,7 +10776,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10852,13 +10799,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>182</v>
+        <v>307</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>183</v>
+        <v>494</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>184</v>
+        <v>495</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10909,7 +10856,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>185</v>
+        <v>493</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10921,7 +10868,7 @@
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>76</v>
@@ -10930,7 +10877,7 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -10941,11 +10888,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10964,17 +10911,15 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>132</v>
+        <v>497</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
@@ -10999,13 +10944,13 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -11023,7 +10968,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>192</v>
+        <v>496</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11035,7 +10980,7 @@
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>76</v>
@@ -11044,7 +10989,7 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -11055,43 +11000,41 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>502</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>371</v>
+        <v>503</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>372</v>
+        <v>504</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11127,31 +11070,29 @@
         <v>76</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>373</v>
+        <v>501</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>76</v>
@@ -11171,15 +11112,17 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="C82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>85</v>
@@ -11194,15 +11137,17 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>268</v>
+        <v>502</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11251,10 +11196,10 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>85</v>
@@ -11269,10 +11214,10 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11283,7 +11228,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11306,15 +11251,17 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11363,7 +11310,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11381,1259 +11328,15 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>490</v>
+        <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>491</v>
+        <v>128</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AB92" s="2"/>
-      <c r="AC92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN94" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-assessment-vaccination</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-assessment-vaccination</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -552,7 +552,7 @@
     <t>Vaccine that was administered or was to be administered.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-vaccine-types</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-vaccine-types</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -851,7 +851,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-source-of-info</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-source-of-info</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1922,7 +1922,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.39453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.99609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-assessment-vaccination</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-assessment-vaccination</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -552,7 +552,7 @@
     <t>Vaccine that was administered or was to be administered.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-vaccine-types</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-vaccine-types</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -851,7 +851,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-source-of-info</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-source-of-info</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1922,7 +1922,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.39453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
